--- a/风险管控月出账流程/每月欠费报表/201802欠费报表/201802省政企客户部直管客户欠费账龄表.xlsx
+++ b/风险管控月出账流程/每月欠费报表/201802欠费报表/201802省政企客户部直管客户欠费账龄表.xlsx
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4024,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
